--- a/Code/Results/Cases/Case_0_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_123/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.857210487938127</v>
+        <v>4.136103668755909</v>
       </c>
       <c r="D2">
-        <v>6.132571860562338</v>
+        <v>9.012363208363849</v>
       </c>
       <c r="E2">
-        <v>8.413730262740767</v>
+        <v>13.327999910634</v>
       </c>
       <c r="F2">
-        <v>22.58773438859357</v>
+        <v>32.56003849646859</v>
       </c>
       <c r="G2">
-        <v>2.083905470387916</v>
+        <v>3.651790664247824</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.34785903494481</v>
+        <v>22.64048159906616</v>
       </c>
       <c r="J2">
-        <v>5.646903228819906</v>
+        <v>9.901962788081462</v>
       </c>
       <c r="K2">
-        <v>17.86317845318408</v>
+        <v>13.64782969350226</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.62344742472087</v>
+        <v>16.92893180262911</v>
       </c>
       <c r="N2">
-        <v>12.38291055485776</v>
+        <v>18.06803169272159</v>
       </c>
       <c r="O2">
-        <v>16.0261421344498</v>
+        <v>24.54088136003697</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.615508990212862</v>
+        <v>4.037996911736511</v>
       </c>
       <c r="D3">
-        <v>5.957013332393959</v>
+        <v>8.998688632331502</v>
       </c>
       <c r="E3">
-        <v>8.30378873796824</v>
+        <v>13.34443554280399</v>
       </c>
       <c r="F3">
-        <v>22.15709334641862</v>
+        <v>32.60905162601514</v>
       </c>
       <c r="G3">
-        <v>2.089256937711827</v>
+        <v>3.653857433784242</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.1028153972939</v>
+        <v>22.68370602297985</v>
       </c>
       <c r="J3">
-        <v>5.682929727972741</v>
+        <v>9.927420582521934</v>
       </c>
       <c r="K3">
-        <v>16.7102243329937</v>
+        <v>13.25998805950048</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.87145182251409</v>
+        <v>16.78052238570713</v>
       </c>
       <c r="N3">
-        <v>12.50153547371434</v>
+        <v>18.11251829228348</v>
       </c>
       <c r="O3">
-        <v>15.87082758860282</v>
+        <v>24.60708639993614</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.460181358658404</v>
+        <v>3.975801007628341</v>
       </c>
       <c r="D4">
-        <v>5.848965919418824</v>
+        <v>8.991521330507821</v>
       </c>
       <c r="E4">
-        <v>8.240372846202519</v>
+        <v>13.35667525222626</v>
       </c>
       <c r="F4">
-        <v>21.9102505039729</v>
+        <v>32.64738458371975</v>
       </c>
       <c r="G4">
-        <v>2.092646330252179</v>
+        <v>3.655194259313915</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.96508256568165</v>
+        <v>22.71578979570894</v>
       </c>
       <c r="J4">
-        <v>5.707452672508014</v>
+        <v>9.944168991613166</v>
       </c>
       <c r="K4">
-        <v>15.96107127395905</v>
+        <v>13.01750910867802</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.39282844695946</v>
+        <v>16.69119879043544</v>
       </c>
       <c r="N4">
-        <v>12.57794264083723</v>
+        <v>18.1416196970103</v>
       </c>
       <c r="O4">
-        <v>15.7905130588402</v>
+        <v>24.65350955624586</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.395179012189169</v>
+        <v>3.949983286823394</v>
       </c>
       <c r="D5">
-        <v>5.804932321990218</v>
+        <v>8.988911885105663</v>
       </c>
       <c r="E5">
-        <v>8.215562528830214</v>
+        <v>13.36220333471253</v>
       </c>
       <c r="F5">
-        <v>21.81408696570085</v>
+        <v>32.66507285963042</v>
       </c>
       <c r="G5">
-        <v>2.094054180205846</v>
+        <v>3.655756134428396</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.91212785787888</v>
+        <v>22.7302549925714</v>
       </c>
       <c r="J5">
-        <v>5.718035630446538</v>
+        <v>9.951275374952798</v>
       </c>
       <c r="K5">
-        <v>15.6453948715138</v>
+        <v>12.91775004992152</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.19375323270812</v>
+        <v>16.65528420021464</v>
       </c>
       <c r="N5">
-        <v>12.60996522265479</v>
+        <v>18.15392879419481</v>
       </c>
       <c r="O5">
-        <v>15.76146819238619</v>
+        <v>24.67387512385417</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.384283628357806</v>
+        <v>3.945668352667802</v>
       </c>
       <c r="D6">
-        <v>5.797622197319991</v>
+        <v>8.988497452271597</v>
       </c>
       <c r="E6">
-        <v>8.211505205193461</v>
+        <v>13.36315390315136</v>
       </c>
       <c r="F6">
-        <v>21.79838637617694</v>
+        <v>32.66813469920005</v>
       </c>
       <c r="G6">
-        <v>2.094289579011976</v>
+        <v>3.655850468218596</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.90352536499707</v>
+        <v>22.73274082558962</v>
       </c>
       <c r="J6">
-        <v>5.719828127500008</v>
+        <v>9.952472382497954</v>
       </c>
       <c r="K6">
-        <v>15.59234904197795</v>
+        <v>12.90113236636912</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.16046050827589</v>
+        <v>16.64935087409982</v>
       </c>
       <c r="N6">
-        <v>12.61533574036936</v>
+        <v>18.15599991602409</v>
       </c>
       <c r="O6">
-        <v>15.75686469135689</v>
+        <v>24.67734413238061</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.45931156557833</v>
+        <v>3.97545470613456</v>
       </c>
       <c r="D7">
-        <v>5.848371998557661</v>
+        <v>8.991484875361641</v>
       </c>
       <c r="E7">
-        <v>8.240034062793626</v>
+        <v>13.35674761812538</v>
       </c>
       <c r="F7">
-        <v>21.90893568553662</v>
+        <v>32.64761477006687</v>
       </c>
       <c r="G7">
-        <v>2.092665208347007</v>
+        <v>3.655201767618251</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.96435559872344</v>
+        <v>22.71597925172478</v>
       </c>
       <c r="J7">
-        <v>5.70759302904318</v>
+        <v>9.944263691481416</v>
       </c>
       <c r="K7">
-        <v>15.95685604418516</v>
+        <v>13.01616735856496</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.39015966073692</v>
+        <v>16.69071242527526</v>
       </c>
       <c r="N7">
-        <v>12.57837093574619</v>
+        <v>18.14178387851821</v>
       </c>
       <c r="O7">
-        <v>15.7901065731843</v>
+        <v>24.65377835689015</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.775327454132962</v>
+        <v>4.102694387917117</v>
       </c>
       <c r="D8">
-        <v>6.072127164837454</v>
+        <v>9.007394554349263</v>
       </c>
       <c r="E8">
-        <v>8.374976953838967</v>
+        <v>13.33322117076609</v>
       </c>
       <c r="F8">
-        <v>22.43561180555049</v>
+        <v>32.57522586340565</v>
       </c>
       <c r="G8">
-        <v>2.085729531195638</v>
+        <v>3.652489242634989</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.26071387886149</v>
+        <v>22.65423294093094</v>
       </c>
       <c r="J8">
-        <v>5.658817577460259</v>
+        <v>9.910508958867922</v>
       </c>
       <c r="K8">
-        <v>17.47418213837028</v>
+        <v>13.51508728943929</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.36778350208608</v>
+        <v>16.87740647308716</v>
       </c>
       <c r="N8">
-        <v>12.42306368078775</v>
+        <v>18.0830003843609</v>
       </c>
       <c r="O8">
-        <v>15.96940898669418</v>
+        <v>24.56250839433621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.338916451088213</v>
+        <v>4.335868514080262</v>
       </c>
       <c r="D9">
-        <v>6.506427994027641</v>
+        <v>9.048238602580669</v>
       </c>
       <c r="E9">
-        <v>8.671767039169016</v>
+        <v>13.30412200304901</v>
       </c>
       <c r="F9">
-        <v>23.60681725846967</v>
+        <v>32.49880662160928</v>
       </c>
       <c r="G9">
-        <v>2.072921762193571</v>
+        <v>3.64770566165826</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.94354783274486</v>
+        <v>22.5772641559514</v>
       </c>
       <c r="J9">
-        <v>5.582921473199183</v>
+        <v>9.853165587741151</v>
       </c>
       <c r="K9">
-        <v>20.12392371592491</v>
+        <v>14.45313062982262</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.14325982566179</v>
+        <v>17.25632390754144</v>
       </c>
       <c r="N9">
-        <v>12.14744715468512</v>
+        <v>17.98186437829785</v>
       </c>
       <c r="O9">
-        <v>16.44439267204399</v>
+        <v>24.42949962667971</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.717614828700755</v>
+        <v>4.496235457655319</v>
       </c>
       <c r="D10">
-        <v>6.819773593235219</v>
+        <v>9.083975232151888</v>
       </c>
       <c r="E10">
-        <v>8.908964971665549</v>
+        <v>13.29311242227749</v>
       </c>
       <c r="F10">
-        <v>24.5496152140393</v>
+        <v>32.48279074678862</v>
       </c>
       <c r="G10">
-        <v>2.06395300346777</v>
+        <v>3.64451428982927</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.5076048419871</v>
+        <v>22.54775903794051</v>
       </c>
       <c r="J10">
-        <v>5.540215514020887</v>
+        <v>9.81640961203731</v>
       </c>
       <c r="K10">
-        <v>21.87466192632268</v>
+        <v>15.11055763065482</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.5255497418504</v>
+        <v>17.54051310101192</v>
       </c>
       <c r="N10">
-        <v>11.96355119700894</v>
+        <v>17.91612918699504</v>
       </c>
       <c r="O10">
-        <v>16.87327273385621</v>
+        <v>24.36001465299875</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.882073538121381</v>
+        <v>4.566632408182397</v>
       </c>
       <c r="D11">
-        <v>6.960535814576002</v>
+        <v>9.101440789237026</v>
       </c>
       <c r="E11">
-        <v>9.02091045509926</v>
+        <v>13.29034980674922</v>
       </c>
       <c r="F11">
-        <v>24.99583001744135</v>
+        <v>32.48423823268269</v>
       </c>
       <c r="G11">
-        <v>2.059958677499616</v>
+        <v>3.643131885182669</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.77770635644363</v>
+        <v>22.54023103978595</v>
       </c>
       <c r="J11">
-        <v>5.523862143777227</v>
+        <v>9.800851002284642</v>
       </c>
       <c r="K11">
-        <v>22.62922386186287</v>
+        <v>15.40143252129763</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.14151747410708</v>
+        <v>17.6706230745141</v>
       </c>
       <c r="N11">
-        <v>11.88418065199364</v>
+        <v>17.88807512076518</v>
       </c>
       <c r="O11">
-        <v>17.08654130355432</v>
+        <v>24.33457469524115</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.943219727296549</v>
+        <v>4.592909048396903</v>
       </c>
       <c r="D12">
-        <v>7.013544197858719</v>
+        <v>9.108225024398591</v>
       </c>
       <c r="E12">
-        <v>9.063871727091527</v>
+        <v>13.28962588289444</v>
       </c>
       <c r="F12">
-        <v>25.16724182777098</v>
+        <v>32.48604215850717</v>
       </c>
       <c r="G12">
-        <v>2.058457562834068</v>
+        <v>3.642618323951771</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.88191890953237</v>
+        <v>22.53822887394124</v>
       </c>
       <c r="J12">
-        <v>5.518133023885033</v>
+        <v>9.795126121107673</v>
       </c>
       <c r="K12">
-        <v>22.9089978900945</v>
+        <v>15.51030546163517</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.3699806719838</v>
+        <v>17.71997525702991</v>
       </c>
       <c r="N12">
-        <v>11.85476558426092</v>
+        <v>17.87771694714871</v>
       </c>
       <c r="O12">
-        <v>17.16996720667225</v>
+        <v>24.32583103009921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.930101169603788</v>
+        <v>4.587267062218812</v>
       </c>
       <c r="D13">
-        <v>7.002141594535706</v>
+        <v>9.10675639517315</v>
       </c>
       <c r="E13">
-        <v>9.054594077548689</v>
+        <v>13.28976747477554</v>
       </c>
       <c r="F13">
-        <v>25.13021750427925</v>
+        <v>32.48559780981319</v>
       </c>
       <c r="G13">
-        <v>2.058780359822612</v>
+        <v>3.642728487898531</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.85938918428592</v>
+        <v>22.53862232813434</v>
       </c>
       <c r="J13">
-        <v>5.519345918669186</v>
+        <v>9.79635166095008</v>
       </c>
       <c r="K13">
-        <v>22.84900776124983</v>
+        <v>15.48691587918004</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.32098916039987</v>
+        <v>17.70934330725647</v>
       </c>
       <c r="N13">
-        <v>11.86107171985842</v>
+        <v>17.87993597588265</v>
       </c>
       <c r="O13">
-        <v>17.15188060983433</v>
+        <v>24.32767451590159</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.887126762739824</v>
+        <v>4.568801916712391</v>
       </c>
       <c r="D14">
-        <v>6.96490296939378</v>
+        <v>9.101995537268373</v>
       </c>
       <c r="E14">
-        <v>9.024433546295374</v>
+        <v>13.29028379588331</v>
       </c>
       <c r="F14">
-        <v>25.00988355721546</v>
+        <v>32.48436147837668</v>
       </c>
       <c r="G14">
-        <v>2.059834955555263</v>
+        <v>3.643089435553101</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.78624135596301</v>
+        <v>22.54004931107346</v>
       </c>
       <c r="J14">
-        <v>5.523381387313007</v>
+        <v>9.800376670817581</v>
       </c>
       <c r="K14">
-        <v>22.65236018819488</v>
+        <v>15.4104156399567</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.16040895264321</v>
+        <v>17.67468186952773</v>
       </c>
       <c r="N14">
-        <v>11.88174766160678</v>
+        <v>17.88721763421584</v>
       </c>
       <c r="O14">
-        <v>17.09335109668245</v>
+        <v>24.3338374991239</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.860656286132988</v>
+        <v>4.557441456013732</v>
       </c>
       <c r="D15">
-        <v>6.942053712809882</v>
+        <v>9.099101462281755</v>
       </c>
       <c r="E15">
-        <v>9.006033240977045</v>
+        <v>13.29064199656984</v>
       </c>
       <c r="F15">
-        <v>24.93649179814957</v>
+        <v>32.48376771373789</v>
       </c>
       <c r="G15">
-        <v>2.060482390483882</v>
+        <v>3.643311817534658</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.74168730734966</v>
+        <v>22.54103390177925</v>
       </c>
       <c r="J15">
-        <v>5.52591425798509</v>
+        <v>9.802863824038397</v>
       </c>
       <c r="K15">
-        <v>22.53113318653058</v>
+        <v>15.36338826538431</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.06142680786815</v>
+        <v>17.65346036555483</v>
       </c>
       <c r="N15">
-        <v>11.89449651088903</v>
+        <v>17.8917123910282</v>
       </c>
       <c r="O15">
-        <v>17.05784869959752</v>
+        <v>24.33772847155545</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.70670914390516</v>
+        <v>4.491582236162101</v>
       </c>
       <c r="D16">
-        <v>6.810535160265855</v>
+        <v>9.082857852758151</v>
       </c>
       <c r="E16">
-        <v>8.901729442574858</v>
+        <v>13.29333809715663</v>
       </c>
       <c r="F16">
-        <v>24.5207982451135</v>
+        <v>32.48287190407989</v>
       </c>
       <c r="G16">
-        <v>2.064215692459915</v>
+        <v>3.644606024821734</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.49022394608756</v>
+        <v>22.54836970833223</v>
       </c>
       <c r="J16">
-        <v>5.541347908672055</v>
+        <v>9.817449762181722</v>
       </c>
       <c r="K16">
-        <v>21.82451199899688</v>
+        <v>15.09137491140769</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.4846213195794</v>
+        <v>17.53202365038376</v>
       </c>
       <c r="N16">
-        <v>11.96882651448685</v>
+        <v>17.91799974335963</v>
       </c>
       <c r="O16">
-        <v>16.85970542510034</v>
+        <v>24.36180159822889</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.610260117902626</v>
+        <v>4.450515195755115</v>
       </c>
       <c r="D17">
-        <v>6.729367320397198</v>
+        <v>9.07320014775795</v>
       </c>
       <c r="E17">
-        <v>8.838769740864553</v>
+        <v>13.29556678063288</v>
       </c>
       <c r="F17">
-        <v>24.27018472884727</v>
+        <v>32.48455942111256</v>
       </c>
       <c r="G17">
-        <v>2.066527284096256</v>
+        <v>3.645417710200197</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.33941154457806</v>
+        <v>22.55438044926754</v>
       </c>
       <c r="J17">
-        <v>5.551618132616241</v>
+        <v>9.826695166797801</v>
       </c>
       <c r="K17">
-        <v>21.38034098207715</v>
+        <v>14.92233323464492</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.12217636672625</v>
+        <v>17.45771250494118</v>
       </c>
       <c r="N17">
-        <v>12.01553966054908</v>
+        <v>17.93459935958274</v>
       </c>
       <c r="O17">
-        <v>16.74284437743356</v>
+        <v>24.37815182886074</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.554049969445645</v>
+        <v>4.426654795996487</v>
       </c>
       <c r="D18">
-        <v>6.682516185889102</v>
+        <v>9.067759283003975</v>
       </c>
       <c r="E18">
-        <v>8.802938215650906</v>
+        <v>13.29706008679857</v>
       </c>
       <c r="F18">
-        <v>24.12767285878342</v>
+        <v>32.48635210799748</v>
       </c>
       <c r="G18">
-        <v>2.067864963024355</v>
+        <v>3.64589110218384</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.25394065143827</v>
+        <v>22.55839241779284</v>
       </c>
       <c r="J18">
-        <v>5.557813245125002</v>
+        <v>9.832122254080273</v>
       </c>
       <c r="K18">
-        <v>21.12092200658477</v>
+        <v>14.82433904518602</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.91053165146385</v>
+        <v>17.41505112137139</v>
       </c>
       <c r="N18">
-        <v>12.04280947387928</v>
+        <v>17.94432111121902</v>
       </c>
       <c r="O18">
-        <v>16.67733645133235</v>
+        <v>24.3881365694265</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.5348921849445</v>
+        <v>4.418535342099248</v>
       </c>
       <c r="D19">
-        <v>6.666626042536084</v>
+        <v>9.06593677913574</v>
       </c>
       <c r="E19">
-        <v>8.790872105593731</v>
+        <v>13.29760202680059</v>
       </c>
       <c r="F19">
-        <v>24.07970313192744</v>
+        <v>32.48710025756195</v>
       </c>
       <c r="G19">
-        <v>2.068319296753636</v>
+        <v>3.646052507968752</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.22522054477993</v>
+        <v>22.55984604186717</v>
       </c>
       <c r="J19">
-        <v>5.559959624944701</v>
+        <v>9.833978565508101</v>
       </c>
       <c r="K19">
-        <v>21.03240823523518</v>
+        <v>14.79103147043985</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.83832525102779</v>
+        <v>17.40062165634944</v>
       </c>
       <c r="N19">
-        <v>12.05211084043537</v>
+        <v>17.94764264890387</v>
       </c>
       <c r="O19">
-        <v>16.6554481216698</v>
+        <v>24.39161684545443</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.62060343773121</v>
+        <v>4.454911766646747</v>
       </c>
       <c r="D20">
-        <v>6.73802520834694</v>
+        <v>9.07421645343023</v>
       </c>
       <c r="E20">
-        <v>8.845432536474842</v>
+        <v>13.29530765637032</v>
       </c>
       <c r="F20">
-        <v>24.29669419977281</v>
+        <v>32.48429469779454</v>
       </c>
       <c r="G20">
-        <v>2.066280377651487</v>
+        <v>3.645330629224685</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.35533417302225</v>
+        <v>22.55368317242089</v>
       </c>
       <c r="J20">
-        <v>5.550494896077788</v>
+        <v>9.825699659596234</v>
       </c>
       <c r="K20">
-        <v>21.4280314910297</v>
+        <v>14.94040800989899</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.16108755366461</v>
+        <v>17.46561499936264</v>
       </c>
       <c r="N20">
-        <v>12.01052522748659</v>
+        <v>17.93281428883954</v>
       </c>
       <c r="O20">
-        <v>16.75510731452561</v>
+        <v>24.37635121592013</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.899780116165272</v>
+        <v>4.574236025778668</v>
       </c>
       <c r="D21">
-        <v>6.975849155822021</v>
+        <v>9.103389319856888</v>
       </c>
       <c r="E21">
-        <v>9.033277046386395</v>
+        <v>13.2901234012378</v>
       </c>
       <c r="F21">
-        <v>25.04516273444629</v>
+        <v>32.48469054203606</v>
       </c>
       <c r="G21">
-        <v>2.059524891623864</v>
+        <v>3.642983147496031</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.80767433712293</v>
+        <v>22.53960713783749</v>
       </c>
       <c r="J21">
-        <v>5.522183313502996</v>
+        <v>9.799189902182597</v>
       </c>
       <c r="K21">
-        <v>22.71028168265149</v>
+        <v>15.43292094585242</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.2077047988474</v>
+        <v>17.68486083355264</v>
       </c>
       <c r="N21">
-        <v>11.87565703304552</v>
+        <v>17.88507163953854</v>
       </c>
       <c r="O21">
-        <v>17.11046989553838</v>
+        <v>24.33200310960881</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.075646380488389</v>
+        <v>4.649994116230561</v>
       </c>
       <c r="D22">
-        <v>7.129545493266509</v>
+        <v>9.123447041461265</v>
       </c>
       <c r="E22">
-        <v>9.15936147477097</v>
+        <v>13.28861290656628</v>
       </c>
       <c r="F22">
-        <v>25.54853103887424</v>
+        <v>32.49226827665404</v>
       </c>
       <c r="G22">
-        <v>2.055176087663672</v>
+        <v>3.641506762705649</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.11455447811133</v>
+        <v>22.53535354947014</v>
       </c>
       <c r="J22">
-        <v>5.506392929748982</v>
+        <v>9.782836524560725</v>
       </c>
       <c r="K22">
-        <v>23.51358377839825</v>
+        <v>15.74733616509458</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.86383583081868</v>
+        <v>17.82861368085804</v>
       </c>
       <c r="N22">
-        <v>11.79126172197041</v>
+        <v>17.8554151118569</v>
       </c>
       <c r="O22">
-        <v>17.35827821145504</v>
+        <v>24.30820708852403</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.982387888700933</v>
+        <v>4.609768625108247</v>
       </c>
       <c r="D23">
-        <v>7.047685300698779</v>
+        <v>9.112652300090785</v>
       </c>
       <c r="E23">
-        <v>9.091767968003374</v>
+        <v>13.28924754305456</v>
       </c>
       <c r="F23">
-        <v>25.27859073106115</v>
+        <v>32.48755446688423</v>
       </c>
       <c r="G23">
-        <v>2.057491359728377</v>
+        <v>3.642289461803993</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.9497413718792</v>
+        <v>22.53717103707638</v>
       </c>
       <c r="J23">
-        <v>5.514564857113873</v>
+        <v>9.791475747124419</v>
       </c>
       <c r="K23">
-        <v>23.08800342419176</v>
+        <v>15.58024001541409</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.51617923692974</v>
+        <v>17.75185991460458</v>
       </c>
       <c r="N23">
-        <v>11.83595314302922</v>
+        <v>17.8711020946296</v>
       </c>
       <c r="O23">
-        <v>17.22457871108702</v>
+        <v>24.32043193862972</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.615929590470937</v>
+        <v>4.452924855872928</v>
       </c>
       <c r="D24">
-        <v>6.734111555581953</v>
+        <v>9.073756634146338</v>
       </c>
       <c r="E24">
-        <v>8.84241914928938</v>
+        <v>13.29542414602409</v>
       </c>
       <c r="F24">
-        <v>24.28470437628735</v>
+        <v>32.48441181712632</v>
       </c>
       <c r="G24">
-        <v>2.066391976848334</v>
+        <v>3.645369977525446</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.34813171077411</v>
+        <v>22.55399667846431</v>
       </c>
       <c r="J24">
-        <v>5.55100180770197</v>
+        <v>9.826149380192005</v>
       </c>
       <c r="K24">
-        <v>21.40648325950083</v>
+        <v>14.93223891910482</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.14350599647102</v>
+        <v>17.46204208852031</v>
       </c>
       <c r="N24">
-        <v>12.0127909656024</v>
+        <v>17.93362076352283</v>
       </c>
       <c r="O24">
-        <v>16.74955802112185</v>
+        <v>24.37716345167998</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.192599141686392</v>
+        <v>4.274645052279875</v>
       </c>
       <c r="D25">
-        <v>6.389745226105818</v>
+        <v>9.036171538558586</v>
       </c>
       <c r="E25">
-        <v>8.588076216960424</v>
+        <v>13.31017145435123</v>
       </c>
       <c r="F25">
-        <v>23.27533830649759</v>
+        <v>32.51244225201655</v>
       </c>
       <c r="G25">
-        <v>2.07630592741245</v>
+        <v>3.648942756201818</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.74786733624753</v>
+        <v>22.59334602224407</v>
       </c>
       <c r="J25">
-        <v>5.601238007957475</v>
+        <v>9.867733243571658</v>
       </c>
       <c r="K25">
-        <v>19.44173117131639</v>
+        <v>14.20446273037448</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.67903270595879</v>
+        <v>17.15265129861978</v>
       </c>
       <c r="N25">
-        <v>12.21881924162333</v>
+        <v>18.0077159576612</v>
       </c>
       <c r="O25">
-        <v>16.30216549053556</v>
+        <v>24.46053749629013</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_123/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.136103668755909</v>
+        <v>4.857210487937925</v>
       </c>
       <c r="D2">
-        <v>9.012363208363849</v>
+        <v>6.132571860562511</v>
       </c>
       <c r="E2">
-        <v>13.327999910634</v>
+        <v>8.413730262740861</v>
       </c>
       <c r="F2">
-        <v>32.56003849646859</v>
+        <v>22.58773438859343</v>
       </c>
       <c r="G2">
-        <v>3.651790664247824</v>
+        <v>2.083905470388049</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.64048159906616</v>
+        <v>15.34785903494474</v>
       </c>
       <c r="J2">
-        <v>9.901962788081462</v>
+        <v>5.646903228819909</v>
       </c>
       <c r="K2">
-        <v>13.64782969350226</v>
+        <v>17.86317845318417</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.92893180262911</v>
+        <v>14.62344742472087</v>
       </c>
       <c r="N2">
-        <v>18.06803169272159</v>
+        <v>12.38291055485766</v>
       </c>
       <c r="O2">
-        <v>24.54088136003697</v>
+        <v>16.0261421344496</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.037996911736511</v>
+        <v>4.615508990212862</v>
       </c>
       <c r="D3">
-        <v>8.998688632331502</v>
+        <v>5.957013332393966</v>
       </c>
       <c r="E3">
-        <v>13.34443554280399</v>
+        <v>8.303788737968196</v>
       </c>
       <c r="F3">
-        <v>32.60905162601514</v>
+        <v>22.15709334641859</v>
       </c>
       <c r="G3">
-        <v>3.653857433784242</v>
+        <v>2.089256937711826</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.68370602297985</v>
+        <v>15.10281539729389</v>
       </c>
       <c r="J3">
-        <v>9.927420582521934</v>
+        <v>5.682929727972649</v>
       </c>
       <c r="K3">
-        <v>13.25998805950048</v>
+        <v>16.71022433299374</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.78052238570713</v>
+        <v>13.87145182251408</v>
       </c>
       <c r="N3">
-        <v>18.11251829228348</v>
+        <v>12.50153547371434</v>
       </c>
       <c r="O3">
-        <v>24.60708639993614</v>
+        <v>15.87082758860281</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.975801007628341</v>
+        <v>4.460181358658463</v>
       </c>
       <c r="D4">
-        <v>8.991521330507821</v>
+        <v>5.848965919418917</v>
       </c>
       <c r="E4">
-        <v>13.35667525222626</v>
+        <v>8.240372846202629</v>
       </c>
       <c r="F4">
-        <v>32.64738458371975</v>
+        <v>21.91025050397274</v>
       </c>
       <c r="G4">
-        <v>3.655194259313915</v>
+        <v>2.092646330252447</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.71578979570894</v>
+        <v>14.96508256568144</v>
       </c>
       <c r="J4">
-        <v>9.944168991613166</v>
+        <v>5.707452672508075</v>
       </c>
       <c r="K4">
-        <v>13.01750910867802</v>
+        <v>15.96107127395913</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.69119879043544</v>
+        <v>13.39282844695942</v>
       </c>
       <c r="N4">
-        <v>18.1416196970103</v>
+        <v>12.57794264083719</v>
       </c>
       <c r="O4">
-        <v>24.65350955624586</v>
+        <v>15.79051305883998</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.949983286823394</v>
+        <v>4.395179012189281</v>
       </c>
       <c r="D5">
-        <v>8.988911885105663</v>
+        <v>5.804932321990185</v>
       </c>
       <c r="E5">
-        <v>13.36220333471253</v>
+        <v>8.215562528830263</v>
       </c>
       <c r="F5">
-        <v>32.66507285963042</v>
+        <v>21.81408696570078</v>
       </c>
       <c r="G5">
-        <v>3.655756134428396</v>
+        <v>2.094054180205713</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.7302549925714</v>
+        <v>14.91212785787884</v>
       </c>
       <c r="J5">
-        <v>9.951275374952798</v>
+        <v>5.718035630446598</v>
       </c>
       <c r="K5">
-        <v>12.91775004992152</v>
+        <v>15.64539487151382</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.65528420021464</v>
+        <v>13.19375323270812</v>
       </c>
       <c r="N5">
-        <v>18.15392879419481</v>
+        <v>12.60996522265479</v>
       </c>
       <c r="O5">
-        <v>24.67387512385417</v>
+        <v>15.76146819238618</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.945668352667802</v>
+        <v>4.384283628357832</v>
       </c>
       <c r="D6">
-        <v>8.988497452271597</v>
+        <v>5.797622197320137</v>
       </c>
       <c r="E6">
-        <v>13.36315390315136</v>
+        <v>8.211505205193562</v>
       </c>
       <c r="F6">
-        <v>32.66813469920005</v>
+        <v>21.79838637617691</v>
       </c>
       <c r="G6">
-        <v>3.655850468218596</v>
+        <v>2.094289579011841</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.73274082558962</v>
+        <v>14.90352536499697</v>
       </c>
       <c r="J6">
-        <v>9.952472382497954</v>
+        <v>5.719828127499977</v>
       </c>
       <c r="K6">
-        <v>12.90113236636912</v>
+        <v>15.592349041978</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.64935087409982</v>
+        <v>13.16046050827588</v>
       </c>
       <c r="N6">
-        <v>18.15599991602409</v>
+        <v>12.61533574036936</v>
       </c>
       <c r="O6">
-        <v>24.67734413238061</v>
+        <v>15.75686469135677</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.97545470613456</v>
+        <v>4.459311565578246</v>
       </c>
       <c r="D7">
-        <v>8.991484875361641</v>
+        <v>5.848371998557759</v>
       </c>
       <c r="E7">
-        <v>13.35674761812538</v>
+        <v>8.24003406279369</v>
       </c>
       <c r="F7">
-        <v>32.64761477006687</v>
+        <v>21.90893568553657</v>
       </c>
       <c r="G7">
-        <v>3.655201767618251</v>
+        <v>2.092665208347007</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.71597925172478</v>
+        <v>14.96435559872342</v>
       </c>
       <c r="J7">
-        <v>9.944263691481416</v>
+        <v>5.707593029043118</v>
       </c>
       <c r="K7">
-        <v>13.01616735856496</v>
+        <v>15.95685604418519</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.69071242527526</v>
+        <v>13.39015966073691</v>
       </c>
       <c r="N7">
-        <v>18.14178387851821</v>
+        <v>12.57837093574615</v>
       </c>
       <c r="O7">
-        <v>24.65377835689015</v>
+        <v>15.79010657318423</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.102694387917117</v>
+        <v>4.77532745413254</v>
       </c>
       <c r="D8">
-        <v>9.007394554349263</v>
+        <v>6.072127164837496</v>
       </c>
       <c r="E8">
-        <v>13.33322117076609</v>
+        <v>8.374976953839065</v>
       </c>
       <c r="F8">
-        <v>32.57522586340565</v>
+        <v>22.43561180555041</v>
       </c>
       <c r="G8">
-        <v>3.652489242634989</v>
+        <v>2.085729531196306</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.65423294093094</v>
+        <v>15.2607138788615</v>
       </c>
       <c r="J8">
-        <v>9.910508958867922</v>
+        <v>5.658817577460289</v>
       </c>
       <c r="K8">
-        <v>13.51508728943929</v>
+        <v>17.47418213837032</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.87740647308716</v>
+        <v>14.36778350208609</v>
       </c>
       <c r="N8">
-        <v>18.0830003843609</v>
+        <v>12.42306368078771</v>
       </c>
       <c r="O8">
-        <v>24.56250839433621</v>
+        <v>15.96940898669408</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.335868514080262</v>
+        <v>5.33891645108829</v>
       </c>
       <c r="D9">
-        <v>9.048238602580669</v>
+        <v>6.506427994027664</v>
       </c>
       <c r="E9">
-        <v>13.30412200304901</v>
+        <v>8.67176703916906</v>
       </c>
       <c r="F9">
-        <v>32.49880662160928</v>
+        <v>23.60681725846965</v>
       </c>
       <c r="G9">
-        <v>3.64770566165826</v>
+        <v>2.072921762193571</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.5772641559514</v>
+        <v>15.94354783274479</v>
       </c>
       <c r="J9">
-        <v>9.853165587741151</v>
+        <v>5.582921473199187</v>
       </c>
       <c r="K9">
-        <v>14.45313062982262</v>
+        <v>20.12392371592493</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.25632390754144</v>
+        <v>16.14325982566177</v>
       </c>
       <c r="N9">
-        <v>17.98186437829785</v>
+        <v>12.14744715468512</v>
       </c>
       <c r="O9">
-        <v>24.42949962667971</v>
+        <v>16.44439267204393</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.496235457655319</v>
+        <v>5.717614828700755</v>
       </c>
       <c r="D10">
-        <v>9.083975232151888</v>
+        <v>6.819773593235177</v>
       </c>
       <c r="E10">
-        <v>13.29311242227749</v>
+        <v>8.908964971665478</v>
       </c>
       <c r="F10">
-        <v>32.48279074678862</v>
+        <v>24.54961521403927</v>
       </c>
       <c r="G10">
-        <v>3.64451428982927</v>
+        <v>2.063953003467769</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.54775903794051</v>
+        <v>16.50760484198707</v>
       </c>
       <c r="J10">
-        <v>9.81640961203731</v>
+        <v>5.540215514020864</v>
       </c>
       <c r="K10">
-        <v>15.11055763065482</v>
+        <v>21.87466192632271</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.54051310101192</v>
+        <v>17.52554974185044</v>
       </c>
       <c r="N10">
-        <v>17.91612918699504</v>
+        <v>11.9635511970089</v>
       </c>
       <c r="O10">
-        <v>24.36001465299875</v>
+        <v>16.87327273385619</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.566632408182397</v>
+        <v>5.882073538121381</v>
       </c>
       <c r="D11">
-        <v>9.101440789237026</v>
+        <v>6.96053581457597</v>
       </c>
       <c r="E11">
-        <v>13.29034980674922</v>
+        <v>9.02091045509925</v>
       </c>
       <c r="F11">
-        <v>32.48423823268269</v>
+        <v>24.9958300174414</v>
       </c>
       <c r="G11">
-        <v>3.643131885182669</v>
+        <v>2.059958677499481</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.54023103978595</v>
+        <v>16.77770635644367</v>
       </c>
       <c r="J11">
-        <v>9.800851002284642</v>
+        <v>5.523862143777227</v>
       </c>
       <c r="K11">
-        <v>15.40143252129763</v>
+        <v>22.62922386186283</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.6706230745141</v>
+        <v>18.14151747410706</v>
       </c>
       <c r="N11">
-        <v>17.88807512076518</v>
+        <v>11.88418065199367</v>
       </c>
       <c r="O11">
-        <v>24.33457469524115</v>
+        <v>17.08654130355437</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.592909048396903</v>
+        <v>5.943219727296636</v>
       </c>
       <c r="D12">
-        <v>9.108225024398591</v>
+        <v>7.013544197858705</v>
       </c>
       <c r="E12">
-        <v>13.28962588289444</v>
+        <v>9.063871727091536</v>
       </c>
       <c r="F12">
-        <v>32.48604215850717</v>
+        <v>25.16724182777114</v>
       </c>
       <c r="G12">
-        <v>3.642618323951771</v>
+        <v>2.058457562834068</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.53822887394124</v>
+        <v>16.88191890953249</v>
       </c>
       <c r="J12">
-        <v>9.795126121107673</v>
+        <v>5.518133023885057</v>
       </c>
       <c r="K12">
-        <v>15.51030546163517</v>
+        <v>22.90899789009443</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.71997525702991</v>
+        <v>18.36998067198376</v>
       </c>
       <c r="N12">
-        <v>17.87771694714871</v>
+        <v>11.85476558426098</v>
       </c>
       <c r="O12">
-        <v>24.32583103009921</v>
+        <v>17.16996720667241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.587267062218812</v>
+        <v>5.930101169603968</v>
       </c>
       <c r="D13">
-        <v>9.10675639517315</v>
+        <v>7.002141594535666</v>
       </c>
       <c r="E13">
-        <v>13.28976747477554</v>
+        <v>9.05459407754865</v>
       </c>
       <c r="F13">
-        <v>32.48559780981319</v>
+        <v>25.13021750427916</v>
       </c>
       <c r="G13">
-        <v>3.642728487898531</v>
+        <v>2.058780359822613</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.53862232813434</v>
+        <v>16.85938918428586</v>
       </c>
       <c r="J13">
-        <v>9.79635166095008</v>
+        <v>5.519345918669155</v>
       </c>
       <c r="K13">
-        <v>15.48691587918004</v>
+        <v>22.84900776124987</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.70934330725647</v>
+        <v>18.32098916039989</v>
       </c>
       <c r="N13">
-        <v>17.87993597588265</v>
+        <v>11.86107171985839</v>
       </c>
       <c r="O13">
-        <v>24.32767451590159</v>
+        <v>17.15188060983428</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.568801916712391</v>
+        <v>5.887126762739743</v>
       </c>
       <c r="D14">
-        <v>9.101995537268373</v>
+        <v>6.964902969393731</v>
       </c>
       <c r="E14">
-        <v>13.29028379588331</v>
+        <v>9.024433546295384</v>
       </c>
       <c r="F14">
-        <v>32.48436147837668</v>
+        <v>25.00988355721548</v>
       </c>
       <c r="G14">
-        <v>3.643089435553101</v>
+        <v>2.059834955555128</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.54004931107346</v>
+        <v>16.78624135596305</v>
       </c>
       <c r="J14">
-        <v>9.800376670817581</v>
+        <v>5.523381387313004</v>
       </c>
       <c r="K14">
-        <v>15.4104156399567</v>
+        <v>22.65236018819487</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.67468186952773</v>
+        <v>18.16040895264319</v>
       </c>
       <c r="N14">
-        <v>17.88721763421584</v>
+        <v>11.88174766160682</v>
       </c>
       <c r="O14">
-        <v>24.3338374991239</v>
+        <v>17.09335109668246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.557441456013732</v>
+        <v>5.860656286132827</v>
       </c>
       <c r="D15">
-        <v>9.099101462281755</v>
+        <v>6.942053712809961</v>
       </c>
       <c r="E15">
-        <v>13.29064199656984</v>
+        <v>9.00603324097715</v>
       </c>
       <c r="F15">
-        <v>32.48376771373789</v>
+        <v>24.93649179814951</v>
       </c>
       <c r="G15">
-        <v>3.643311817534658</v>
+        <v>2.060482390484149</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.54103390177925</v>
+        <v>16.74168730734959</v>
       </c>
       <c r="J15">
-        <v>9.802863824038397</v>
+        <v>5.525914257985069</v>
       </c>
       <c r="K15">
-        <v>15.36338826538431</v>
+        <v>22.53113318653063</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.65346036555483</v>
+        <v>18.06142680786819</v>
       </c>
       <c r="N15">
-        <v>17.8917123910282</v>
+        <v>11.89449651088897</v>
       </c>
       <c r="O15">
-        <v>24.33772847155545</v>
+        <v>17.05784869959742</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.491582236162101</v>
+        <v>5.706709143905146</v>
       </c>
       <c r="D16">
-        <v>9.082857852758151</v>
+        <v>6.810535160265895</v>
       </c>
       <c r="E16">
-        <v>13.29333809715663</v>
+        <v>8.901729442574798</v>
       </c>
       <c r="F16">
-        <v>32.48287190407989</v>
+        <v>24.52079824511349</v>
       </c>
       <c r="G16">
-        <v>3.644606024821734</v>
+        <v>2.064215692459916</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.54836970833223</v>
+        <v>16.49022394608756</v>
       </c>
       <c r="J16">
-        <v>9.817449762181722</v>
+        <v>5.54134790867203</v>
       </c>
       <c r="K16">
-        <v>15.09137491140769</v>
+        <v>21.82451199899689</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.53202365038376</v>
+        <v>17.48462131957945</v>
       </c>
       <c r="N16">
-        <v>17.91799974335963</v>
+        <v>11.96882651448682</v>
       </c>
       <c r="O16">
-        <v>24.36180159822889</v>
+        <v>16.85970542510034</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.450515195755115</v>
+        <v>5.610260117902564</v>
       </c>
       <c r="D17">
-        <v>9.07320014775795</v>
+        <v>6.729367320397198</v>
       </c>
       <c r="E17">
-        <v>13.29556678063288</v>
+        <v>8.838769740864592</v>
       </c>
       <c r="F17">
-        <v>32.48455942111256</v>
+        <v>24.2701847288473</v>
       </c>
       <c r="G17">
-        <v>3.645417710200197</v>
+        <v>2.066527284096523</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.55438044926754</v>
+        <v>16.33941154457811</v>
       </c>
       <c r="J17">
-        <v>9.826695166797801</v>
+        <v>5.551618132616298</v>
       </c>
       <c r="K17">
-        <v>14.92233323464492</v>
+        <v>21.38034098207713</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.45771250494118</v>
+        <v>17.12217636672622</v>
       </c>
       <c r="N17">
-        <v>17.93459935958274</v>
+        <v>12.01553966054908</v>
       </c>
       <c r="O17">
-        <v>24.37815182886074</v>
+        <v>16.7428443774336</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.426654795996487</v>
+        <v>5.554049969445556</v>
       </c>
       <c r="D18">
-        <v>9.067759283003975</v>
+        <v>6.68251618588909</v>
       </c>
       <c r="E18">
-        <v>13.29706008679857</v>
+        <v>8.802938215650949</v>
       </c>
       <c r="F18">
-        <v>32.48635210799748</v>
+        <v>24.12767285878343</v>
       </c>
       <c r="G18">
-        <v>3.64589110218384</v>
+        <v>2.06786496302449</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.55839241779284</v>
+        <v>16.25394065143829</v>
       </c>
       <c r="J18">
-        <v>9.832122254080273</v>
+        <v>5.55781324512503</v>
       </c>
       <c r="K18">
-        <v>14.82433904518602</v>
+        <v>21.12092200658476</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.41505112137139</v>
+        <v>16.91053165146383</v>
       </c>
       <c r="N18">
-        <v>17.94432111121902</v>
+        <v>12.04280947387929</v>
       </c>
       <c r="O18">
-        <v>24.3881365694265</v>
+        <v>16.67733645133235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.418535342099248</v>
+        <v>5.534892184944567</v>
       </c>
       <c r="D19">
-        <v>9.06593677913574</v>
+        <v>6.666626042536119</v>
       </c>
       <c r="E19">
-        <v>13.29760202680059</v>
+        <v>8.790872105593738</v>
       </c>
       <c r="F19">
-        <v>32.48710025756195</v>
+        <v>24.07970313192739</v>
       </c>
       <c r="G19">
-        <v>3.646052507968752</v>
+        <v>2.068319296753502</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.55984604186717</v>
+        <v>16.22522054477986</v>
       </c>
       <c r="J19">
-        <v>9.833978565508101</v>
+        <v>5.559959624944677</v>
       </c>
       <c r="K19">
-        <v>14.79103147043985</v>
+        <v>21.03240823523522</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.40062165634944</v>
+        <v>16.83832525102782</v>
       </c>
       <c r="N19">
-        <v>17.94764264890387</v>
+        <v>12.05211084043537</v>
       </c>
       <c r="O19">
-        <v>24.39161684545443</v>
+        <v>16.65544812166973</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.454911766646747</v>
+        <v>5.62060343773127</v>
       </c>
       <c r="D20">
-        <v>9.07421645343023</v>
+        <v>6.738025208346878</v>
       </c>
       <c r="E20">
-        <v>13.29530765637032</v>
+        <v>8.845432536474835</v>
       </c>
       <c r="F20">
-        <v>32.48429469779454</v>
+        <v>24.29669419977278</v>
       </c>
       <c r="G20">
-        <v>3.645330629224685</v>
+        <v>2.066280377651487</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.55368317242089</v>
+        <v>16.35533417302227</v>
       </c>
       <c r="J20">
-        <v>9.825699659596234</v>
+        <v>5.55049489607781</v>
       </c>
       <c r="K20">
-        <v>14.94040800989899</v>
+        <v>21.42803149102972</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.46561499936264</v>
+        <v>17.16108755366462</v>
       </c>
       <c r="N20">
-        <v>17.93281428883954</v>
+        <v>12.01052522748659</v>
       </c>
       <c r="O20">
-        <v>24.37635121592013</v>
+        <v>16.75510731452561</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.574236025778668</v>
+        <v>5.899780116165177</v>
       </c>
       <c r="D21">
-        <v>9.103389319856888</v>
+        <v>6.975849155822125</v>
       </c>
       <c r="E21">
-        <v>13.2901234012378</v>
+        <v>9.03327704638636</v>
       </c>
       <c r="F21">
-        <v>32.48469054203606</v>
+        <v>25.04516273444633</v>
       </c>
       <c r="G21">
-        <v>3.642983147496031</v>
+        <v>2.059524891623865</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.53960713783749</v>
+        <v>16.80767433712295</v>
       </c>
       <c r="J21">
-        <v>9.799189902182597</v>
+        <v>5.522183313502969</v>
       </c>
       <c r="K21">
-        <v>15.43292094585242</v>
+        <v>22.71028168265148</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.68486083355264</v>
+        <v>18.2077047988474</v>
       </c>
       <c r="N21">
-        <v>17.88507163953854</v>
+        <v>11.87565703304555</v>
       </c>
       <c r="O21">
-        <v>24.33200310960881</v>
+        <v>17.1104698955384</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.649994116230561</v>
+        <v>6.075646380488403</v>
       </c>
       <c r="D22">
-        <v>9.123447041461265</v>
+        <v>7.129545493266463</v>
       </c>
       <c r="E22">
-        <v>13.28861290656628</v>
+        <v>9.159361474770972</v>
       </c>
       <c r="F22">
-        <v>32.49226827665404</v>
+        <v>25.54853103887422</v>
       </c>
       <c r="G22">
-        <v>3.641506762705649</v>
+        <v>2.055176087663672</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.53535354947014</v>
+        <v>17.11455447811133</v>
       </c>
       <c r="J22">
-        <v>9.782836524560725</v>
+        <v>5.506392929749033</v>
       </c>
       <c r="K22">
-        <v>15.74733616509458</v>
+        <v>23.51358377839827</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.82861368085804</v>
+        <v>18.8638358308187</v>
       </c>
       <c r="N22">
-        <v>17.8554151118569</v>
+        <v>11.79126172197044</v>
       </c>
       <c r="O22">
-        <v>24.30820708852403</v>
+        <v>17.35827821145503</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.609768625108247</v>
+        <v>5.982387888700925</v>
       </c>
       <c r="D23">
-        <v>9.112652300090785</v>
+        <v>7.047685300698772</v>
       </c>
       <c r="E23">
-        <v>13.28924754305456</v>
+        <v>9.091767968003417</v>
       </c>
       <c r="F23">
-        <v>32.48755446688423</v>
+        <v>25.2785907310612</v>
       </c>
       <c r="G23">
-        <v>3.642289461803993</v>
+        <v>2.057491359728509</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.53717103707638</v>
+        <v>16.94974137187923</v>
       </c>
       <c r="J23">
-        <v>9.791475747124419</v>
+        <v>5.51456485711393</v>
       </c>
       <c r="K23">
-        <v>15.58024001541409</v>
+        <v>23.08800342419175</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.75185991460458</v>
+        <v>18.51617923692973</v>
       </c>
       <c r="N23">
-        <v>17.8711020946296</v>
+        <v>11.83595314302921</v>
       </c>
       <c r="O23">
-        <v>24.32043193862972</v>
+        <v>17.22457871108707</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.452924855872928</v>
+        <v>5.615929590471012</v>
       </c>
       <c r="D24">
-        <v>9.073756634146338</v>
+        <v>6.734111555581962</v>
       </c>
       <c r="E24">
-        <v>13.29542414602409</v>
+        <v>8.842419149289343</v>
       </c>
       <c r="F24">
-        <v>32.48441181712632</v>
+        <v>24.28470437628737</v>
       </c>
       <c r="G24">
-        <v>3.645369977525446</v>
+        <v>2.066391976848333</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.55399667846431</v>
+        <v>16.34813171077411</v>
       </c>
       <c r="J24">
-        <v>9.826149380192005</v>
+        <v>5.551001807701909</v>
       </c>
       <c r="K24">
-        <v>14.93223891910482</v>
+        <v>21.40648325950081</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.46204208852031</v>
+        <v>17.14350599647102</v>
       </c>
       <c r="N24">
-        <v>17.93362076352283</v>
+        <v>12.0127909656024</v>
       </c>
       <c r="O24">
-        <v>24.37716345167998</v>
+        <v>16.74955802112186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.274645052279875</v>
+        <v>5.1925991416864</v>
       </c>
       <c r="D25">
-        <v>9.036171538558586</v>
+        <v>6.389745226105916</v>
       </c>
       <c r="E25">
-        <v>13.31017145435123</v>
+        <v>8.588076216960516</v>
       </c>
       <c r="F25">
-        <v>32.51244225201655</v>
+        <v>23.27533830649755</v>
       </c>
       <c r="G25">
-        <v>3.648942756201818</v>
+        <v>2.07630592741245</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.59334602224407</v>
+        <v>15.74786733624748</v>
       </c>
       <c r="J25">
-        <v>9.867733243571658</v>
+        <v>5.601238007957536</v>
       </c>
       <c r="K25">
-        <v>14.20446273037448</v>
+        <v>19.44173117131641</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.15265129861978</v>
+        <v>15.6790327059588</v>
       </c>
       <c r="N25">
-        <v>18.0077159576612</v>
+        <v>12.2188192416233</v>
       </c>
       <c r="O25">
-        <v>24.46053749629013</v>
+        <v>16.30216549053549</v>
       </c>
     </row>
   </sheetData>
